--- a/biology/Histoire de la zoologie et de la botanique/Willem_Jan_Jacobus_Oswald_de_Wilde/Willem_Jan_Jacobus_Oswald_de_Wilde.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Willem_Jan_Jacobus_Oswald_de_Wilde/Willem_Jan_Jacobus_Oswald_de_Wilde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Willem Jan Jacobus Oswald de Wilde (1936) est un botaniste et explorateur allemand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willem Jan Jacobus Oswald de Wilde (1936) est un botaniste et explorateur allemand.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chercheur et enseignant à l'Université Leyde, et il s'est spécialisé dans l'étude de la famille des Myristicaceae[2].
-Il a mené des explorations étendues en Afrique, notamment en Mauritanie, au Cameroun, au Tchad, en Éthiopie et en Côte d'Ivoire[3].
-Il a découvert et nommé de nouvelles espèces botaniques, seul ou avec sa femme Brigitta Emma Elisabeth Duyfjes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chercheur et enseignant à l'Université Leyde, et il s'est spécialisé dans l'étude de la famille des Myristicaceae.
+Il a mené des explorations étendues en Afrique, notamment en Mauritanie, au Cameroun, au Tchad, en Éthiopie et en Côte d'Ivoire.
+Il a découvert et nommé de nouvelles espèces botaniques, seul ou avec sa femme Brigitta Emma Elisabeth Duyfjes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici une liste non exhaustive des publications de Willem Jan Jacobus Oswald de Wilde :
 2007. Gynostemma (Cucurbitaceae) in Thailand and Malesia. De Wilde, W.j.de Wilde; Duyfjes, B.Et.Et. Blumea J.plant Taxonomy &amp; Plant Geography, vol. 52, pp. 263-280 (Copie  (il    Archive; voyez-vous le   ).
